--- a/instabilite_abstraction.xlsx
+++ b/instabilite_abstraction.xlsx
@@ -290,7 +290,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,11 +472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97732608"/>
-        <c:axId val="98536256"/>
+        <c:axId val="117832704"/>
+        <c:axId val="99866240"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="97732608"/>
+        <c:axId val="117832704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98536256"/>
+        <c:crossAx val="99866240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98536256"/>
+        <c:axId val="99866240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -506,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97732608"/>
+        <c:crossAx val="117832704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -853,7 +853,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">

--- a/instabilite_abstraction.xlsx
+++ b/instabilite_abstraction.xlsx
@@ -245,7 +245,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,7 +257,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,7 +290,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,11 +472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117832704"/>
-        <c:axId val="99866240"/>
+        <c:axId val="120388608"/>
+        <c:axId val="94910080"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="117832704"/>
+        <c:axId val="120388608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99866240"/>
+        <c:crossAx val="94910080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99866240"/>
+        <c:axId val="94910080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -506,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117832704"/>
+        <c:crossAx val="120388608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -853,7 +853,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,28 +950,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>8.3333333333333259E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
